--- a/statusinvest2.xlsx
+++ b/statusinvest2.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Acer 1430\Projetos Python\pythonprojeto3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E698DB21-9C10-41D8-8367-FFE3CB9C86E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8AD2DF-B244-45E7-985F-28DD4C81E957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8880" xr2:uid="{DD2816C3-E91D-4907-B553-33FA6E3562CC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD2816C3-E91D-4907-B553-33FA6E3562CC}"/>
   </bookViews>
   <sheets>
-    <sheet name="statusinvest" sheetId="1" r:id="rId1"/>
+    <sheet name="st" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -2788,7 +2788,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A57928-F69F-4205-9D0E-FE89F7C16F83}">
   <dimension ref="A1:AD606"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
